--- a/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_4_black_flies_lab_bau.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/bauchi/nov 2024/ng_oncho_2411_4_black_flies_lab_bau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\bauchi\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CAF22-642B-4A59-A979-6E364AFD70E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD83425-D616-4605-9E8F-28FE39D69F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="268">
   <si>
     <t>type</t>
   </si>
@@ -139,12 +139,6 @@
     <t>select_pool_months</t>
   </si>
   <si>
-    <t>pools_positive</t>
-  </si>
-  <si>
-    <t>pools_negative</t>
-  </si>
-  <si>
     <t>pools_less_100</t>
   </si>
   <si>
@@ -280,42 +274,12 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>${pools_positive}</t>
-  </si>
-  <si>
-    <t>pools_positive_name</t>
-  </si>
-  <si>
-    <t>pools_positive_result</t>
-  </si>
-  <si>
-    <t>pools_positive_size</t>
-  </si>
-  <si>
-    <t>pools_positive_test_type</t>
-  </si>
-  <si>
     <t>PCR</t>
   </si>
   <si>
     <t>end repeat</t>
   </si>
   <si>
-    <t>pools_negative_name</t>
-  </si>
-  <si>
-    <t>pools_negative_result</t>
-  </si>
-  <si>
-    <t>pools_negative_size</t>
-  </si>
-  <si>
-    <t>pools_negative_test_type</t>
-  </si>
-  <si>
-    <t>${pools_negative}</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -349,12 +313,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>${pools_positive} &gt; 0</t>
-  </si>
-  <si>
-    <t>${pools_negative} &gt; 0</t>
-  </si>
-  <si>
     <t>select_multiple month</t>
   </si>
   <si>
@@ -413,12 +371,6 @@
   </si>
   <si>
     <t>positive_count</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_negative}) + ${pools_negative}</t>
-  </si>
-  <si>
-    <t>sum(${pool_result_positive}) + ${pools_positive}</t>
   </si>
   <si>
     <t>Months of Fly Collection: **${select_pool_months}**
@@ -438,12 +390,6 @@
     <t>pools_less_100_test_type</t>
   </si>
   <si>
-    <t>Test type for pool **${pools_positive_name}**</t>
-  </si>
-  <si>
-    <t>Test type for pool **${pools_negative_name}**</t>
-  </si>
-  <si>
     <t>Test type for pool **${pools_less_100_name}**</t>
   </si>
   <si>
@@ -624,21 +570,6 @@
     <t>lga = ${lbl_lga}</t>
   </si>
   <si>
-    <t>pools_positive_details_v42</t>
-  </si>
-  <si>
-    <t>pools_negative_details_v42</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_v42</t>
-  </si>
-  <si>
-    <t>ng_oncho_2026_4_b_flies_lab_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 4. Blackfly Lab App V2</t>
-  </si>
-  <si>
     <t>site_id</t>
   </si>
   <si>
@@ -754,6 +685,162 @@
   </si>
   <si>
     <t>community = ${lbl_village_community}</t>
+  </si>
+  <si>
+    <t>(Bauchi) 4. Blackfly Lab App V2.2</t>
+  </si>
+  <si>
+    <t>pools_neg</t>
+  </si>
+  <si>
+    <t>${pools_neg} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_neg_name</t>
+  </si>
+  <si>
+    <t>pools_neg_result</t>
+  </si>
+  <si>
+    <t>pools_neg_size</t>
+  </si>
+  <si>
+    <t>pools_neg_test_type</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_neg_name}**</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_negative}) + ${pools_neg}</t>
+  </si>
+  <si>
+    <t>pools_neg_details_b_v2</t>
+  </si>
+  <si>
+    <t>pools_l_100_det_b_v2</t>
+  </si>
+  <si>
+    <t>select_pool_years</t>
+  </si>
+  <si>
+    <t>Please enter the year in which the flies included in this pool were collected</t>
+  </si>
+  <si>
+    <t>. &gt; 2021 and . &lt; 2025</t>
+  </si>
+  <si>
+    <t>Please, enter a valid year</t>
+  </si>
+  <si>
+    <t>ITAS/GADAU</t>
+  </si>
+  <si>
+    <t>JAMA ARE</t>
+  </si>
+  <si>
+    <t>KATAGUM</t>
+  </si>
+  <si>
+    <t>KAFIN MADAKI</t>
+  </si>
+  <si>
+    <t>SABON GARIN YAMRAT</t>
+  </si>
+  <si>
+    <t>BAKIN KANAKA</t>
+  </si>
+  <si>
+    <t>WAILO</t>
+  </si>
+  <si>
+    <t>ZUBUKI</t>
+  </si>
+  <si>
+    <t>GONGO</t>
+  </si>
+  <si>
+    <t>YAYU</t>
+  </si>
+  <si>
+    <t>GAKA</t>
+  </si>
+  <si>
+    <t>KAWARI</t>
+  </si>
+  <si>
+    <t>BAKIN KOGI</t>
+  </si>
+  <si>
+    <t>BAUSHE ILA</t>
+  </si>
+  <si>
+    <t>BAU_ALK_G_037</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_038</t>
+  </si>
+  <si>
+    <t>BAU_KIR_E_039</t>
+  </si>
+  <si>
+    <t>BAU_TOR_G_040</t>
+  </si>
+  <si>
+    <t>BAU_BAU_G_041</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_042</t>
+  </si>
+  <si>
+    <t>BAU_GAN_G_043</t>
+  </si>
+  <si>
+    <t>BAU_NIN_G_044</t>
+  </si>
+  <si>
+    <t>BAU_JAM_G_045</t>
+  </si>
+  <si>
+    <t>BAU_ITA_G_046</t>
+  </si>
+  <si>
+    <t>BAU_KAT_G_047</t>
+  </si>
+  <si>
+    <t>Test type for pool **${pools_pos_name}**</t>
+  </si>
+  <si>
+    <t>pools_pos</t>
+  </si>
+  <si>
+    <t>pools_pos_details_b_v2</t>
+  </si>
+  <si>
+    <t>${pools_pos} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_pos}</t>
+  </si>
+  <si>
+    <t>pools_pos_name</t>
+  </si>
+  <si>
+    <t>pools_pos_result</t>
+  </si>
+  <si>
+    <t>pools_pos_size</t>
+  </si>
+  <si>
+    <t>pools_pos_test_type</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_positive}) + ${pools_pos}</t>
+  </si>
+  <si>
+    <t>ng_oncho_2411_4_bf_lab_bau_v2_2</t>
   </si>
 </sst>
 </file>
@@ -1298,13 +1385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1365,18 +1452,18 @@
         <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
@@ -1392,13 +1479,13 @@
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -1411,19 +1498,19 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -1436,19 +1523,19 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -1464,13 +1551,13 @@
     </row>
     <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1486,13 +1573,13 @@
     </row>
     <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1508,13 +1595,13 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
@@ -1527,19 +1614,19 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="10" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -1553,20 +1640,24 @@
       <c r="K9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
@@ -1575,63 +1666,63 @@
       <c r="K10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18" t="s">
+    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -1639,157 +1730,157 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>100</v>
+      <c r="I14" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="7">
-        <v>100</v>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="21"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="B18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1797,179 +1888,179 @@
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="K20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>100</v>
+      <c r="I21" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="7">
-        <v>100</v>
+      <c r="K21" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>100</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="21"/>
-    </row>
-    <row r="24" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="K23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="9"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
@@ -1985,13 +2076,13 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7"/>
@@ -2007,30 +2098,32 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2039,56 +2132,56 @@
       <c r="G31" s="9"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="21"/>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2097,43 +2190,41 @@
       <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I35" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="7"/>
@@ -2147,15 +2238,15 @@
       <c r="K36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="7"/>
@@ -2164,84 +2255,87 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="K37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2255,6 +2349,25 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
     </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2263,11 +2376,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2288,13 +2401,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,200 +2445,200 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,1242 +2647,1593 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>183</v>
-      </c>
       <c r="C74" s="23" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F82" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
+        <v>244</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>161</v>
+        <v>245</v>
+      </c>
+      <c r="E87" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F89" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F90" t="s">
-        <v>143</v>
+        <v>167</v>
+      </c>
+      <c r="E90" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="E91" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F92" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" t="s">
-        <v>170</v>
-      </c>
+      <c r="A95" s="17"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F109" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F112" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F113" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F114" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F115" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="F116" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="C118" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F136" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F117" t="s">
-        <v>180</v>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3782,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3807,10 +4271,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
